--- a/python-excel-understand-seaborn-demo.xlsx
+++ b/python-excel-understand-seaborn-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{139232CA-858F-48AD-BED2-F5383591CFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BEE529-11C0-4792-A35D-9462747FFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="12480" xr2:uid="{5671EF0E-FE22-4545-8826-7FA4477DC80D}"/>
   </bookViews>
@@ -33,6 +33,55 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+</python>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Marketing Spend</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/674f895e-d264-8001-b03f-277b61f044dc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +451,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9269A71-081C-4420-83F4-DCDBBBC753E6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/python-excel-understand-seaborn-demo.xlsx
+++ b/python-excel-understand-seaborn-demo.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BEE529-11C0-4792-A35D-9462747FFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C764CC5-8D44-49EC-8CF0-2EFDE6E410E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="12480" xr2:uid="{5671EF0E-FE22-4545-8826-7FA4477DC80D}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" firstSheet="1" activeTab="8" xr2:uid="{5671EF0E-FE22-4545-8826-7FA4477DC80D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="first-plot" sheetId="1" r:id="rId1"/>
+    <sheet name="line-plot" sheetId="2" r:id="rId2"/>
+    <sheet name="bar-plot" sheetId="3" r:id="rId3"/>
+    <sheet name="histogram-kde" sheetId="4" r:id="rId4"/>
+    <sheet name="jitterplot" sheetId="5" r:id="rId5"/>
+    <sheet name="changing-themes" sheetId="6" r:id="rId6"/>
+    <sheet name="axis-level-function" sheetId="7" r:id="rId7"/>
+    <sheet name="trest" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +43,157 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="12">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="12">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -52,36 +207,164 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code># Static DataFrame
+df = pd.DataFrame({
+    'Store': ['New York', 'Los Angeles', 'Chicago', 'Houston', 'Phoenix',
+              'New York', 'Los Angeles', 'Chicago', 'Houston', 'Phoenix',
+              'New York', 'Los Angeles', 'Chicago', 'Houston', 'Phoenix',
+              'New York', 'Los Angeles', 'Chicago', 'Houston', 'Phoenix'],
+    'Advertising Spend': [12000, 20000, 15000, 18000, 14000,
+                          22000, 19000, 16000, 21000, 17000,
+                          18000, 23000, 11000, 25000, 12000,
+                          17000, 15000, 20000, 14000, 21000],
+    'Monthly Sales': [36000, 70000, 48000, 54000, 42000,
+                      66000, 63000, 50000, 71000, 47000,
+                      55000, 80000, 35000, 82000, 38000,
+                      52000, 45000, 64000, 41000, 71000]
+})
+# Scatter plot
+sns.set_theme(style="whitegrid")  # Apply a clean theme
+sns.scatterplot(
+    data=df, 
+    x='Advertising Spend', 
+    y='Monthly Sales', 
+    hue='Store',        # Differentiate stores by color
+    palette='tab10'     # Use a consistent color palette
+)
+# Add customizations
+plt.title('Advertising Spend vs Monthly Sales by Store', fontsize=16)
+plt.xlabel('Advertising Spend ($)', fontsize=12)
+plt.ylabel('Monthly Sales Revenue ($)', fontsize=12)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Sample DataFrame
+df_time = pd.DataFrame({
+    'Month': ['Jan', 'Feb', 'Mar', 'Apr'],
+    'Sales': [200, 250, 300, 280]
+})
+# Line plot
+sns.lineplot(data=df_time, x='Month', y='Sales', marker='o')</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Bar plot
+sns.barplot(data=df, x='Product', y='Sales', palette='Blues_d')</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Histogram and KDE plot
+sns.histplot(data=df, x='Sales', kde=True, color='purple')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>import pandas as pd
+df_sales = pd.DataFrame({
+    'Store': ['New York', 'Los Angeles', 'Chicago', 'Houston', 'Phoenix',
+              'New York', 'Los Angeles', 'Chicago', 'Houston', 'Phoenix'],
+    'Month': ['Jan', 'Jan', 'Jan', 'Jan', 'Jan', 'Feb', 'Feb', 'Feb', 'Feb', 'Feb'],
+    'Advertising Spend': [12000, 15000, 14000, 18000, 16000, 14000, 17000, 13000, 20000, 15000],
+    'Monthly Sales': [36000, 45000, 42000, 55000, 46000, 40000, 49000, 41000, 60000, 47000]
+})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>df_ratings = pd.DataFrame({
+    'Store': ['New York'] * 20 + ['Los Angeles'] * 20 + ['Chicago'] * 20,
+    'Customer Rating': [4, 3, 5, 4, 3, 5, 4, 4, 3, 5, 4, 3, 4, 5, 5, 3, 4, 4, 3, 5,
+                        5, 4, 5, 4, 3, 3, 4, 5, 5, 4, 4, 5, 3, 3, 4, 4, 3, 3, 5, 5,
+                        4, 3, 3, 4, 5, 4, 5, 3, 4, 4, 3, 3, 4, 4, 5, 5, 4, 3, 3, 4]
+})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>import seaborn as sns
+import matplotlib.pyplot as plt
+# Scatter plot
+sns.set_theme(style="whitegrid")
+sns.scatterplot(
+    data=df_sales, 
+    x='Advertising Spend', 
+    y='Monthly Sales', 
+    hue='Store', 
+    palette='tab10'
+)
+plt.title('Advertising Spend vs. Monthly Sales', fontsize=16)
+plt.xlabel('Advertising Spend ($)', fontsize=12)
+plt.ylabel('Monthly Sales ($)', fontsize=12)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.lineplot(
+    data=df_sales,
+    x='Month',
+    y='Monthly Sales',
+    hue='Store',
+    marker='o',
+    palette='Set2'
+)
+plt.title('Monthly Sales Trends by Store', fontsize=16)
+plt.xlabel('Month', fontsize=12)
+plt.ylabel('Sales ($)', fontsize=12)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.barplot(
+    data=df_sales, 
+    x='Store', 
+    y='Monthly Sales', 
+    estimator='mean', 
+    ci=None,  # Removes confidence intervals for simplicity
+    palette='Blues_d'
+)
+plt.title('Average Monthly Sales by Store', fontsize=16)
+plt.xlabel('Store', fontsize=12)
+plt.ylabel('Average Sales ($)', fontsize=12)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.kdeplot(
+    data=df_sales, 
+    x='Advertising Spend', 
+    fill=True, 
+    color='purple', 
+    alpha=0.5
+)
+plt.title('Distribution of Advertising Spend', fontsize=16)
+plt.xlabel('Advertising Spend ($)', fontsize=12)
+plt.ylabel('Density', fontsize=12)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.violinplot(
+    data=df_ratings,
+    x='Store',
+    y='Customer Rating',
+    palette='pastel',
+    inner='box'  # Include a box plot inside the violin
+)
+plt.title('Customer Ratings Distribution by Store', fontsize=16)
+plt.xlabel('Store', fontsize=12)
+plt.ylabel('Customer Rating', fontsize=12)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Apply the "dark" theme
+sns.set_theme(style="dark")
+sns.barplot(
+    data=df_sales, 
+    x='Store', 
+    y='Monthly Sales', 
+    estimator='mean', 
+    ci=None,
+    palette='rocket'
+)
+plt.title('Average Monthly Sales (Dark Theme)', fontsize=16)
+plt.xlabel('Store', fontsize=12)
+plt.ylabel('Average Sales ($)', fontsize=12)
+plt.show()
+# Reset to default theme
+sns.set_theme(style="whitegrid")</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Marketing Spend</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>https://chatgpt.com/c/674f895e-d264-8001-b03f-277b61f044dc</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -132,6 +415,763 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>705804</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647141</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>187080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFFDEE7-D76A-DF29-3BA6-469E1D31F144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'first-plot'!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3077529" y="142875"/>
+          <a:ext cx="5475362" cy="4244730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541792</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CDE2ED-9DE3-DCFA-B8EF-D95650BF8DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'line-plot'!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5285242" cy="4005080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276236</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4431D54-C4AE-727E-B10A-9B72805C7354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="trest!A5"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="838200"/>
+          <a:ext cx="5486411" cy="4243777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>766762</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695146</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050238A1-A78F-AB3B-047B-BE7D6867D0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="trest!A24"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1557337" y="5357813"/>
+          <a:ext cx="5468123" cy="4243777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>503694</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E46B66-BFA5-2802-6A4B-C7AC7946135E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="trest!A46"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="566738" y="10415588"/>
+          <a:ext cx="5468123" cy="4243777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>87260</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>182318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16BB48B-4112-E783-3B9B-DC2FA30576B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="trest!A68"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="15311438"/>
+          <a:ext cx="5724155" cy="4243777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425588</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>38489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB06A63-2BAA-8A89-CF46-4F507814ED82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="trest!A93"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2862262" y="21697950"/>
+          <a:ext cx="5468123" cy="4243777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>322336</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>171839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E34B9C-F06E-9D69-47E4-A8F4DC342F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="trest!A88"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="19964400"/>
+          <a:ext cx="5246761" cy="4243777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <a r="11" c="5">
+    <v t="s"/>
+    <v t="s">Store</v>
+    <v t="s">Month</v>
+    <v t="s">Advertising Spend</v>
+    <v t="s">Monthly Sales</v>
+    <v>0</v>
+    <v t="s">New York</v>
+    <v t="s">Jan</v>
+    <v>12000</v>
+    <v>36000</v>
+    <v>1</v>
+    <v t="s">Los Angeles</v>
+    <v t="s">Jan</v>
+    <v>15000</v>
+    <v>45000</v>
+    <v>2</v>
+    <v t="s">Chicago</v>
+    <v t="s">Jan</v>
+    <v>14000</v>
+    <v>42000</v>
+    <v>3</v>
+    <v t="s">Houston</v>
+    <v t="s">Jan</v>
+    <v>18000</v>
+    <v>55000</v>
+    <v>4</v>
+    <v t="s">Phoenix</v>
+    <v t="s">Jan</v>
+    <v>16000</v>
+    <v>46000</v>
+    <v>5</v>
+    <v t="s">New York</v>
+    <v t="s">Feb</v>
+    <v>14000</v>
+    <v>40000</v>
+    <v>6</v>
+    <v t="s">Los Angeles</v>
+    <v t="s">Feb</v>
+    <v>17000</v>
+    <v>49000</v>
+    <v>7</v>
+    <v t="s">Chicago</v>
+    <v t="s">Feb</v>
+    <v>13000</v>
+    <v>41000</v>
+    <v>8</v>
+    <v t="s">Houston</v>
+    <v t="s">Feb</v>
+    <v>20000</v>
+    <v>60000</v>
+    <v>9</v>
+    <v t="s">Phoenix</v>
+    <v t="s">Feb</v>
+    <v>15000</v>
+    <v>47000</v>
+  </a>
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">Store</v>
+    <v t="s">Customer Rating</v>
+    <v>0</v>
+    <v t="s">New York</v>
+    <v>4</v>
+    <v>1</v>
+    <v t="s">New York</v>
+    <v>3</v>
+    <v>2</v>
+    <v t="s">New York</v>
+    <v>5</v>
+    <v>3</v>
+    <v t="s">New York</v>
+    <v>4</v>
+    <v>4</v>
+    <v t="s">New York</v>
+    <v>3</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>55</v>
+    <v t="s">Chicago</v>
+    <v>5</v>
+    <v>56</v>
+    <v t="s">Chicago</v>
+    <v>4</v>
+    <v>57</v>
+    <v t="s">Chicago</v>
+    <v>3</v>
+    <v>58</v>
+    <v t="s">Chicago</v>
+    <v>3</v>
+    <v>59</v>
+    <v t="s">Chicago</v>
+    <v>4</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
+  <rv s="0">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="1">
+    <v>d99b36e680354c4090cb1e58e0f5df77</v>
+    <v>Could not interpret value `Product` for `x`. An entry with this name does not appear in `data`.</v>
+    <v>ValueError</v>
+    <v>18</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>d99b36e680354c4090cb1e58e0f5df77</v>
+    <v>Could not interpret value `Sales` for `x`. An entry with this name does not appear in `data`.</v>
+    <v>ValueError</v>
+    <v>18</v>
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>0</v>
+  </rv>
+  <rv s="3">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>4</v>
+  </rv>
+  <rv s="4">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">         Store Month  Advertising Spend  Monthly Sales
+0     New York   Jan              12000          36000
+1  Los Angeles   Jan              15000          45000
+2      Chicago   Jan              14000          42000
+3      Houston   Jan            ...</v>
+    <v>5</v>
+    <v>2</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+  <rv s="3">
+    <v>DataFrame</v>
+    <v>5</v>
+    <v>7</v>
+  </rv>
+  <rv s="4">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          Store  Customer Rating
+0      New York                4
+1      New York                3
+2      New York                5
+3      New York                4
+4      New York                3
+5      New York                5
+6      New York      ...</v>
+    <v>8</v>
+    <v>2</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_error">
+    <k n="correlationId" t="s"/>
+    <k n="errorMessage" t="s"/>
+    <k n="errorName" t="s"/>
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+    <k n="provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="6">
+    <spb s="0">
+      <v>10</v>
+      <v>4</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>60</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,72 +1491,817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9269A71-081C-4420-83F4-DCDBBBC753E6}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A1" t="e" cm="1" vm="1">
+        <f t="array" ref="A1">_xlfn._xlws.PY(0,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E5B79B-4722-4D9A-A0DB-6C1D33A00258}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A1" t="e" cm="1" vm="2">
+        <f t="array" ref="A1">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E17F41-FCA0-4294-94FC-185FB9A1496F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A1" t="e" cm="1" vm="3">
+        <f t="array" ref="A1">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646EE425-2D78-41A8-87D3-6CDDD2C78045}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A1" t="e" cm="1" vm="4">
+        <f t="array" ref="A1">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A3DDF-31B3-4B11-9AC4-901A8B3697AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6AE294-C1D3-4EF8-B8FC-E54101DA97F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BB426E-6FA4-4789-B683-61DACA7469C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24465F-4E03-4108-9737-A13D36C9917B}">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A1" t="e" cm="1" vm="5">
+        <f t="array" ref="A1">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A3" t="e" cm="1" vm="6">
+        <f t="array" ref="A3">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A5" t="e" cm="1" vm="7">
+        <f t="array" ref="A5">_xlfn._xlws.PY(6,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A24" t="e" cm="1" vm="8">
+        <f t="array" ref="A24">_xlfn._xlws.PY(7,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A46" t="e" cm="1" vm="9">
+        <f t="array" ref="A46">_xlfn._xlws.PY(8,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A68" t="e" cm="1" vm="10">
+        <f t="array" ref="A68">_xlfn._xlws.PY(9,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A88" t="e" cm="1" vm="11">
+        <f t="array" ref="A88">_xlfn._xlws.PY(10,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A93" t="e" cm="1" vm="12">
+        <f t="array" ref="A93">_xlfn._xlws.PY(11,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF56227-5341-4BFB-BA58-DEF662F64D1F}">
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:D11">_xlfn._xlws.PY(4,0)</f>
+        <v>Store</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Month</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Advertising Spend</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Monthly Sales</v>
+      </c>
+      <c r="G1" t="str" cm="1">
+        <f t="array" ref="G1:H61">_xlfn._xlws.PY(5,0)</f>
+        <v>Store</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Customer Rating</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A2" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="C2">
+        <v>12000</v>
+      </c>
+      <c r="D2">
+        <v>36000</v>
+      </c>
+      <c r="G2" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A3" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="C3">
+        <v>15000</v>
+      </c>
+      <c r="D3">
+        <v>45000</v>
+      </c>
+      <c r="G3" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A4" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="C4">
+        <v>14000</v>
+      </c>
+      <c r="D4">
+        <v>42000</v>
+      </c>
+      <c r="G4" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A5" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="C5">
+        <v>18000</v>
+      </c>
+      <c r="D5">
+        <v>55000</v>
+      </c>
+      <c r="G5" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A6" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Jan</v>
+      </c>
+      <c r="C6">
+        <v>16000</v>
+      </c>
+      <c r="D6">
+        <v>46000</v>
+      </c>
+      <c r="G6" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A7" t="str">
+        <v>New York</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C7">
+        <v>14000</v>
+      </c>
+      <c r="D7">
+        <v>40000</v>
+      </c>
+      <c r="G7" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>300</v>
-      </c>
-      <c r="C5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>7</v>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A8" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C8">
+        <v>17000</v>
+      </c>
+      <c r="D8">
+        <v>49000</v>
+      </c>
+      <c r="G8" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A9" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C9">
+        <v>13000</v>
+      </c>
+      <c r="D9">
+        <v>41000</v>
+      </c>
+      <c r="G9" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A10" t="str">
+        <v>Houston</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C10">
+        <v>20000</v>
+      </c>
+      <c r="D10">
+        <v>60000</v>
+      </c>
+      <c r="G10" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A11" t="str">
+        <v>Phoenix</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="C11">
+        <v>15000</v>
+      </c>
+      <c r="D11">
+        <v>47000</v>
+      </c>
+      <c r="G11" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G12" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G13" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G14" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G15" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G16" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G17" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G18" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G19" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G20" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G21" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G22" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G23" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G24" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G25" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G26" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G27" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G28" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G29" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G30" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G31" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G32" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G33" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G34" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G35" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G36" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G37" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G38" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G39" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G40" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G41" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G42" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G43" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G44" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G45" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G46" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G47" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G48" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G49" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G50" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G51" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G52" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G53" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G54" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G55" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G56" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G57" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G58" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G59" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G60" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.7">
+      <c r="G61" t="str">
+        <v>Chicago</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
